--- a/config_10.12/item_config.xlsx
+++ b/config_10.12/item_config.xlsx
@@ -3390,9 +3390,6 @@
     <t>在龙王贡品活动中，进行购买贡品</t>
   </si>
   <si>
-    <t>jf_icon_1</t>
-  </si>
-  <si>
     <t>用于参加排行榜</t>
   </si>
   <si>
@@ -3785,6 +3782,10 @@
   </si>
   <si>
     <t>"open_box","prop_box_chuanshuo"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_f</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4389,9 +4390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L342" sqref="L342"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4468,7 +4469,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -6999,10 +7000,10 @@
         <v>310</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="R80" s="43" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="16.5">
@@ -7075,7 +7076,7 @@
         <v>319</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O82" s="10">
         <v>5</v>
@@ -8758,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="44" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J131" s="30" t="s">
         <v>464</v>
@@ -14157,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="44" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G288" s="8">
         <v>0</v>
@@ -14166,10 +14167,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="44" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J288" s="44" t="s">
         <v>1074</v>
-      </c>
-      <c r="J288" s="44" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="3" customFormat="1" ht="16.5">
@@ -14722,7 +14723,7 @@
         <v>933</v>
       </c>
       <c r="J305" s="39" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K305" s="9" t="s">
         <v>934</v>
@@ -14760,7 +14761,7 @@
         <v>938</v>
       </c>
       <c r="J306" s="39" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="K306" s="9" t="s">
         <v>934</v>
@@ -14798,7 +14799,7 @@
         <v>941</v>
       </c>
       <c r="J307" s="39" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K307" s="9" t="s">
         <v>934</v>
@@ -14836,7 +14837,7 @@
         <v>944</v>
       </c>
       <c r="J308" s="39" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="K308" s="9" t="s">
         <v>934</v>
@@ -14874,7 +14875,7 @@
         <v>947</v>
       </c>
       <c r="J309" s="39" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="K309" s="9" t="s">
         <v>934</v>
@@ -14912,7 +14913,7 @@
         <v>950</v>
       </c>
       <c r="J310" s="39" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K310" s="9" t="s">
         <v>934</v>
@@ -15200,7 +15201,7 @@
         <v>321</v>
       </c>
       <c r="C319" s="43" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D319" s="10">
         <v>-1</v>
@@ -15209,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="F319" s="37" t="s">
-        <v>986</v>
+        <v>1100</v>
       </c>
       <c r="G319" s="10">
         <v>0</v>
@@ -15221,7 +15222,7 @@
         <v>590</v>
       </c>
       <c r="J319" s="14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -15232,16 +15233,16 @@
         <v>322</v>
       </c>
       <c r="C320" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="D320" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E320" s="10">
+        <v>1</v>
+      </c>
+      <c r="F320" s="10" t="s">
         <v>988</v>
-      </c>
-      <c r="D320" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E320" s="10">
-        <v>1</v>
-      </c>
-      <c r="F320" s="10" t="s">
-        <v>989</v>
       </c>
       <c r="G320" s="10">
         <v>0</v>
@@ -15250,10 +15251,10 @@
         <v>1</v>
       </c>
       <c r="I320" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="J320" s="10" t="s">
         <v>990</v>
-      </c>
-      <c r="J320" s="10" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -15264,16 +15265,16 @@
         <v>323</v>
       </c>
       <c r="C321" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="D321" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E321" s="10">
+        <v>1</v>
+      </c>
+      <c r="F321" s="10" t="s">
         <v>992</v>
-      </c>
-      <c r="D321" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E321" s="10">
-        <v>1</v>
-      </c>
-      <c r="F321" s="10" t="s">
-        <v>993</v>
       </c>
       <c r="G321" s="10">
         <v>0</v>
@@ -15282,10 +15283,10 @@
         <v>1</v>
       </c>
       <c r="I321" s="10" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J321" s="10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -15296,28 +15297,28 @@
         <v>324</v>
       </c>
       <c r="C322" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="D322" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E322" s="10">
+        <v>1</v>
+      </c>
+      <c r="F322" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="D322" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E322" s="10">
-        <v>1</v>
-      </c>
-      <c r="F322" s="14" t="s">
+      <c r="G322" s="10">
+        <v>1</v>
+      </c>
+      <c r="H322" s="10">
+        <v>1</v>
+      </c>
+      <c r="I322" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="G322" s="10">
-        <v>1</v>
-      </c>
-      <c r="H322" s="10">
-        <v>1</v>
-      </c>
-      <c r="I322" s="14" t="s">
+      <c r="J322" s="14" t="s">
         <v>997</v>
-      </c>
-      <c r="J322" s="14" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -15328,28 +15329,28 @@
         <v>325</v>
       </c>
       <c r="C323" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="D323" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E323" s="10">
+        <v>1</v>
+      </c>
+      <c r="F323" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="D323" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E323" s="10">
-        <v>1</v>
-      </c>
-      <c r="F323" s="14" t="s">
+      <c r="G323" s="10">
+        <v>1</v>
+      </c>
+      <c r="H323" s="10">
+        <v>1</v>
+      </c>
+      <c r="I323" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="G323" s="10">
-        <v>1</v>
-      </c>
-      <c r="H323" s="10">
-        <v>1</v>
-      </c>
-      <c r="I323" s="14" t="s">
+      <c r="J323" s="14" t="s">
         <v>1001</v>
-      </c>
-      <c r="J323" s="14" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="324" spans="1:12" ht="15.75">
@@ -15360,28 +15361,28 @@
         <v>326</v>
       </c>
       <c r="C324" s="41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D324" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E324" s="10">
+        <v>1</v>
+      </c>
+      <c r="F324" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="G324" s="10">
+        <v>1</v>
+      </c>
+      <c r="H324" s="10">
+        <v>1</v>
+      </c>
+      <c r="I324" s="10" t="s">
         <v>1003</v>
       </c>
-      <c r="D324" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E324" s="10">
-        <v>1</v>
-      </c>
-      <c r="F324" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="G324" s="10">
-        <v>1</v>
-      </c>
-      <c r="H324" s="10">
-        <v>1</v>
-      </c>
-      <c r="I324" s="10" t="s">
+      <c r="J324" s="10" t="s">
         <v>1004</v>
-      </c>
-      <c r="J324" s="10" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="325" spans="1:12" ht="15.75">
@@ -15392,28 +15393,28 @@
         <v>327</v>
       </c>
       <c r="C325" s="41" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D325" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E325" s="10">
+        <v>1</v>
+      </c>
+      <c r="F325" s="14" t="s">
+        <v>999</v>
+      </c>
+      <c r="G325" s="10">
+        <v>1</v>
+      </c>
+      <c r="H325" s="10">
+        <v>1</v>
+      </c>
+      <c r="I325" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="D325" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E325" s="10">
-        <v>1</v>
-      </c>
-      <c r="F325" s="14" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G325" s="10">
-        <v>1</v>
-      </c>
-      <c r="H325" s="10">
-        <v>1</v>
-      </c>
-      <c r="I325" s="10" t="s">
-        <v>1007</v>
-      </c>
       <c r="J325" s="10" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="326" spans="1:12" s="8" customFormat="1">
@@ -15424,7 +15425,7 @@
         <v>328</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D326" s="8">
         <v>-1</v>
@@ -15433,7 +15434,7 @@
         <v>1</v>
       </c>
       <c r="F326" s="30" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G326" s="8">
         <v>0</v>
@@ -15442,10 +15443,10 @@
         <v>33</v>
       </c>
       <c r="I326" s="44" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J326" s="44" t="s">
         <v>1076</v>
-      </c>
-      <c r="J326" s="44" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="327" spans="1:12" customFormat="1">
@@ -15456,16 +15457,16 @@
         <v>329</v>
       </c>
       <c r="C327" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D327" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E327" s="3">
+        <v>1</v>
+      </c>
+      <c r="F327" s="14" t="s">
         <v>1009</v>
-      </c>
-      <c r="D327" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E327" s="3">
-        <v>1</v>
-      </c>
-      <c r="F327" s="14" t="s">
-        <v>1010</v>
       </c>
       <c r="G327" s="10">
         <v>1</v>
@@ -15474,13 +15475,13 @@
         <v>33</v>
       </c>
       <c r="I327" s="42" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J327" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="J327" s="14" t="s">
+      <c r="L327" t="s">
         <v>1012</v>
-      </c>
-      <c r="L327" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="328" spans="1:12" customFormat="1">
@@ -15491,16 +15492,16 @@
         <v>330</v>
       </c>
       <c r="C328" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D328" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E328" s="3">
+        <v>1</v>
+      </c>
+      <c r="F328" s="14" t="s">
         <v>1014</v>
-      </c>
-      <c r="D328" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E328" s="3">
-        <v>1</v>
-      </c>
-      <c r="F328" s="14" t="s">
-        <v>1015</v>
       </c>
       <c r="G328" s="10">
         <v>1</v>
@@ -15509,13 +15510,13 @@
         <v>33</v>
       </c>
       <c r="I328" s="42" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J328" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="J328" s="14" t="s">
+      <c r="L328" t="s">
         <v>1017</v>
-      </c>
-      <c r="L328" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="329" spans="1:12" customFormat="1">
@@ -15526,16 +15527,16 @@
         <v>331</v>
       </c>
       <c r="C329" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D329" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E329" s="3">
+        <v>1</v>
+      </c>
+      <c r="F329" s="14" t="s">
         <v>1019</v>
-      </c>
-      <c r="D329" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E329" s="3">
-        <v>1</v>
-      </c>
-      <c r="F329" s="14" t="s">
-        <v>1020</v>
       </c>
       <c r="G329" s="10">
         <v>1</v>
@@ -15544,13 +15545,13 @@
         <v>33</v>
       </c>
       <c r="I329" s="42" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J329" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="J329" s="14" t="s">
+      <c r="L329" t="s">
         <v>1022</v>
-      </c>
-      <c r="L329" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="330" spans="1:12" customFormat="1">
@@ -15561,16 +15562,16 @@
         <v>332</v>
       </c>
       <c r="C330" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D330" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E330" s="3">
+        <v>1</v>
+      </c>
+      <c r="F330" s="14" t="s">
         <v>1024</v>
-      </c>
-      <c r="D330" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E330" s="3">
-        <v>1</v>
-      </c>
-      <c r="F330" s="14" t="s">
-        <v>1025</v>
       </c>
       <c r="G330" s="10">
         <v>1</v>
@@ -15579,13 +15580,13 @@
         <v>33</v>
       </c>
       <c r="I330" s="42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J330" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="J330" s="14" t="s">
+      <c r="L330" t="s">
         <v>1027</v>
-      </c>
-      <c r="L330" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="331" spans="1:12" customFormat="1">
@@ -15596,16 +15597,16 @@
         <v>333</v>
       </c>
       <c r="C331" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D331" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E331" s="3">
+        <v>1</v>
+      </c>
+      <c r="F331" s="14" t="s">
         <v>1029</v>
-      </c>
-      <c r="D331" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E331" s="3">
-        <v>1</v>
-      </c>
-      <c r="F331" s="14" t="s">
-        <v>1030</v>
       </c>
       <c r="G331" s="10">
         <v>1</v>
@@ -15614,13 +15615,13 @@
         <v>33</v>
       </c>
       <c r="I331" s="42" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J331" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L331" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="332" spans="1:12" customFormat="1">
@@ -15631,16 +15632,16 @@
         <v>334</v>
       </c>
       <c r="C332" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D332" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E332" s="3">
+        <v>1</v>
+      </c>
+      <c r="F332" s="14" t="s">
         <v>1032</v>
-      </c>
-      <c r="D332" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E332" s="3">
-        <v>1</v>
-      </c>
-      <c r="F332" s="14" t="s">
-        <v>1033</v>
       </c>
       <c r="G332" s="10">
         <v>1</v>
@@ -15649,13 +15650,13 @@
         <v>33</v>
       </c>
       <c r="I332" s="42" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J332" s="14" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L332" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="333" spans="1:12" customFormat="1">
@@ -15666,16 +15667,16 @@
         <v>335</v>
       </c>
       <c r="C333" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D333" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E333" s="3">
+        <v>1</v>
+      </c>
+      <c r="F333" s="14" t="s">
         <v>1035</v>
-      </c>
-      <c r="D333" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E333" s="3">
-        <v>1</v>
-      </c>
-      <c r="F333" s="14" t="s">
-        <v>1036</v>
       </c>
       <c r="G333" s="10">
         <v>1</v>
@@ -15684,13 +15685,13 @@
         <v>33</v>
       </c>
       <c r="I333" s="42" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J333" s="14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L333" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="334" spans="1:12" customFormat="1">
@@ -15701,16 +15702,16 @@
         <v>336</v>
       </c>
       <c r="C334" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D334" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E334" s="3">
+        <v>1</v>
+      </c>
+      <c r="F334" s="14" t="s">
         <v>1038</v>
-      </c>
-      <c r="D334" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E334" s="3">
-        <v>1</v>
-      </c>
-      <c r="F334" s="14" t="s">
-        <v>1039</v>
       </c>
       <c r="G334" s="10">
         <v>1</v>
@@ -15719,13 +15720,13 @@
         <v>33</v>
       </c>
       <c r="I334" s="42" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J334" s="14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L334" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="335" spans="1:12" customFormat="1">
@@ -15736,16 +15737,16 @@
         <v>337</v>
       </c>
       <c r="C335" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D335" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E335" s="3">
+        <v>1</v>
+      </c>
+      <c r="F335" s="14" t="s">
         <v>1041</v>
-      </c>
-      <c r="D335" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E335" s="3">
-        <v>1</v>
-      </c>
-      <c r="F335" s="14" t="s">
-        <v>1042</v>
       </c>
       <c r="G335" s="10">
         <v>1</v>
@@ -15754,13 +15755,13 @@
         <v>33</v>
       </c>
       <c r="I335" s="42" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J335" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L335" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="336" spans="1:12" customFormat="1">
@@ -15771,16 +15772,16 @@
         <v>338</v>
       </c>
       <c r="C336" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D336" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E336" s="3">
+        <v>1</v>
+      </c>
+      <c r="F336" s="14" t="s">
         <v>1044</v>
-      </c>
-      <c r="D336" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E336" s="3">
-        <v>1</v>
-      </c>
-      <c r="F336" s="14" t="s">
-        <v>1045</v>
       </c>
       <c r="G336" s="10">
         <v>1</v>
@@ -15789,13 +15790,13 @@
         <v>33</v>
       </c>
       <c r="I336" s="42" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J336" s="14" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L336" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="337" spans="1:12" customFormat="1">
@@ -15806,16 +15807,16 @@
         <v>339</v>
       </c>
       <c r="C337" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D337" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E337" s="3">
+        <v>1</v>
+      </c>
+      <c r="F337" s="14" t="s">
         <v>1047</v>
-      </c>
-      <c r="D337" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E337" s="3">
-        <v>1</v>
-      </c>
-      <c r="F337" s="14" t="s">
-        <v>1048</v>
       </c>
       <c r="G337" s="10">
         <v>1</v>
@@ -15824,13 +15825,13 @@
         <v>33</v>
       </c>
       <c r="I337" s="42" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J337" s="14" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L337" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="338" spans="1:12" customFormat="1">
@@ -15841,16 +15842,16 @@
         <v>340</v>
       </c>
       <c r="C338" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D338" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E338" s="3">
+        <v>1</v>
+      </c>
+      <c r="F338" s="14" t="s">
         <v>1050</v>
-      </c>
-      <c r="D338" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E338" s="3">
-        <v>1</v>
-      </c>
-      <c r="F338" s="14" t="s">
-        <v>1051</v>
       </c>
       <c r="G338" s="10">
         <v>1</v>
@@ -15859,13 +15860,13 @@
         <v>33</v>
       </c>
       <c r="I338" s="42" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J338" s="14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L338" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="339" spans="1:12" customFormat="1">
@@ -15876,16 +15877,16 @@
         <v>341</v>
       </c>
       <c r="C339" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D339" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E339" s="3">
+        <v>1</v>
+      </c>
+      <c r="F339" s="10" t="s">
         <v>1053</v>
-      </c>
-      <c r="D339" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E339" s="3">
-        <v>1</v>
-      </c>
-      <c r="F339" s="10" t="s">
-        <v>1054</v>
       </c>
       <c r="G339" s="10">
         <v>1</v>
@@ -15894,13 +15895,13 @@
         <v>33</v>
       </c>
       <c r="I339" s="42" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J339" s="14" t="s">
         <v>1055</v>
       </c>
-      <c r="J339" s="14" t="s">
+      <c r="L339" t="s">
         <v>1056</v>
-      </c>
-      <c r="L339" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="340" spans="1:12" customFormat="1">
@@ -15911,16 +15912,16 @@
         <v>342</v>
       </c>
       <c r="C340" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D340" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E340" s="3">
+        <v>1</v>
+      </c>
+      <c r="F340" s="10" t="s">
         <v>1058</v>
-      </c>
-      <c r="D340" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E340" s="3">
-        <v>1</v>
-      </c>
-      <c r="F340" s="10" t="s">
-        <v>1059</v>
       </c>
       <c r="G340" s="10">
         <v>1</v>
@@ -15929,13 +15930,13 @@
         <v>33</v>
       </c>
       <c r="I340" s="42" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J340" s="14" t="s">
         <v>1060</v>
       </c>
-      <c r="J340" s="14" t="s">
+      <c r="L340" t="s">
         <v>1061</v>
-      </c>
-      <c r="L340" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="341" spans="1:12" customFormat="1">
@@ -15946,16 +15947,16 @@
         <v>343</v>
       </c>
       <c r="C341" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D341" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E341" s="3">
+        <v>1</v>
+      </c>
+      <c r="F341" s="10" t="s">
         <v>1063</v>
-      </c>
-      <c r="D341" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E341" s="3">
-        <v>1</v>
-      </c>
-      <c r="F341" s="10" t="s">
-        <v>1064</v>
       </c>
       <c r="G341" s="10">
         <v>1</v>
@@ -15964,13 +15965,13 @@
         <v>33</v>
       </c>
       <c r="I341" s="42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J341" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="J341" s="14" t="s">
+      <c r="L341" t="s">
         <v>1066</v>
-      </c>
-      <c r="L341" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15981,7 +15982,7 @@
         <v>344</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D342" s="14">
         <v>-1</v>
@@ -15990,7 +15991,7 @@
         <v>1</v>
       </c>
       <c r="F342" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G342" s="10">
         <v>1</v>
@@ -15999,13 +16000,13 @@
         <v>33</v>
       </c>
       <c r="I342" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="J342" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L342" s="10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -16016,7 +16017,7 @@
         <v>345</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D343" s="14">
         <v>-1</v>
@@ -16025,7 +16026,7 @@
         <v>1</v>
       </c>
       <c r="F343" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G343" s="10">
         <v>1</v>
@@ -16034,13 +16035,13 @@
         <v>33</v>
       </c>
       <c r="I343" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="J343" s="10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="L343" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -16051,7 +16052,7 @@
         <v>346</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D344" s="14">
         <v>-1</v>
@@ -16060,7 +16061,7 @@
         <v>1</v>
       </c>
       <c r="F344" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G344" s="10">
         <v>1</v>
@@ -16069,13 +16070,13 @@
         <v>33</v>
       </c>
       <c r="I344" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J344" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L344" s="10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
